--- a/data.xlsx
+++ b/data.xlsx
@@ -372,7 +372,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4.0e-05</v>
+        <v>2.0e-05</v>
       </c>
     </row>
     <row r="4">
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.00045</v>
+        <v>0.00044</v>
       </c>
     </row>
     <row r="5">
@@ -388,7 +388,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.00207</v>
+        <v>0.00212</v>
       </c>
     </row>
     <row r="6">
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.007</v>
+        <v>0.00727</v>
       </c>
     </row>
     <row r="7">
@@ -404,7 +404,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.01853</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="8">
@@ -412,7 +412,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.03723</v>
+        <v>0.03706</v>
       </c>
     </row>
     <row r="9">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.0624</v>
+        <v>0.06215</v>
       </c>
     </row>
     <row r="10">
@@ -428,7 +428,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.08883</v>
+        <v>0.08975</v>
       </c>
     </row>
     <row r="11">
@@ -436,7 +436,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.11144</v>
+        <v>0.11243</v>
       </c>
     </row>
     <row r="12">
@@ -444,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.12399</v>
+        <v>0.12508</v>
       </c>
     </row>
     <row r="13">
@@ -452,7 +452,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.12399</v>
+        <v>0.12508</v>
       </c>
     </row>
     <row r="14">
@@ -460,7 +460,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.11265</v>
+        <v>0.11366</v>
       </c>
     </row>
     <row r="15">
@@ -468,7 +468,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.09372</v>
+        <v>0.09432</v>
       </c>
     </row>
     <row r="16">
@@ -484,7 +484,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.05106</v>
+        <v>0.05066</v>
       </c>
     </row>
     <row r="18">
@@ -492,7 +492,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.0339</v>
+        <v>0.03377</v>
       </c>
     </row>
     <row r="19">
@@ -500,7 +500,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.02138</v>
+        <v>0.02108</v>
       </c>
     </row>
     <row r="20">
@@ -508,7 +508,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.01209</v>
+        <v>0.01259</v>
       </c>
     </row>
     <row r="21">
@@ -516,7 +516,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.00658</v>
+        <v>0.00679</v>
       </c>
     </row>
     <row r="22">
@@ -524,7 +524,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.00339</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="23">
@@ -532,7 +532,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.0017</v>
+        <v>0.00168</v>
       </c>
     </row>
     <row r="24"/>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>9.81764</v>
+        <v>9.87337</v>
       </c>
     </row>
     <row r="26">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>9.53242</v>
+        <v>9.57538</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3.0e-05</v>
+        <v>6.0e-05</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.0005</v>
+        <v>0.00052</v>
       </c>
     </row>
     <row r="5">
@@ -643,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.00239</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="6">
@@ -651,7 +651,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.00739</v>
+        <v>0.00791</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.01922</v>
+        <v>0.01906</v>
       </c>
     </row>
     <row r="8">
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.03704</v>
+        <v>0.03734</v>
       </c>
     </row>
     <row r="9">
@@ -675,7 +675,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.06394</v>
+        <v>0.06292</v>
       </c>
     </row>
     <row r="10">
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.08913</v>
+        <v>0.08901</v>
       </c>
     </row>
     <row r="11">
@@ -691,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.11342</v>
+        <v>0.11311</v>
       </c>
     </row>
     <row r="12">
@@ -699,7 +699,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.12468</v>
+        <v>0.12583</v>
       </c>
     </row>
     <row r="13">
@@ -707,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.12656</v>
+        <v>0.1267</v>
       </c>
     </row>
     <row r="14">
@@ -715,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.11288</v>
+        <v>0.11326</v>
       </c>
     </row>
     <row r="15">
@@ -723,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.09503</v>
+        <v>0.0932</v>
       </c>
     </row>
     <row r="16">
@@ -731,7 +731,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.0739</v>
+        <v>0.07244</v>
       </c>
     </row>
     <row r="17">
@@ -739,7 +739,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.05216</v>
+        <v>0.05297</v>
       </c>
     </row>
     <row r="18">
@@ -747,7 +747,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.03412</v>
+        <v>0.03535</v>
       </c>
     </row>
     <row r="19">
@@ -755,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.0218</v>
+        <v>0.02136</v>
       </c>
     </row>
     <row r="20">
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.01307</v>
+        <v>0.01285</v>
       </c>
     </row>
     <row r="21">
@@ -771,7 +771,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.00715</v>
+        <v>0.00767</v>
       </c>
     </row>
     <row r="22">
@@ -779,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.00356</v>
+        <v>0.00399</v>
       </c>
     </row>
     <row r="23">
@@ -787,7 +787,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.00203</v>
+        <v>0.00185</v>
       </c>
     </row>
     <row r="24"/>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>9.98487</v>
+        <v>9.98622</v>
       </c>
     </row>
     <row r="26">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>9.79968</v>
+        <v>9.87463</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2.0e-05</v>
+        <v>8.0e-05</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.0005</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.00223</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.00762</v>
+        <v>0.00767</v>
       </c>
     </row>
     <row r="7">
@@ -914,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.01844</v>
+        <v>0.01926</v>
       </c>
     </row>
     <row r="8">
@@ -922,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.03786</v>
+        <v>0.03721</v>
       </c>
     </row>
     <row r="9">
@@ -930,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.06246</v>
+        <v>0.06397</v>
       </c>
     </row>
     <row r="10">
@@ -938,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.08981</v>
+        <v>0.08884</v>
       </c>
     </row>
     <row r="11">
@@ -946,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.11455</v>
+        <v>0.11272</v>
       </c>
     </row>
     <row r="12">
@@ -954,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.12566</v>
+        <v>0.12751</v>
       </c>
     </row>
     <row r="13">
@@ -962,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.12533</v>
+        <v>0.12498</v>
       </c>
     </row>
     <row r="14">
@@ -970,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.11255</v>
+        <v>0.11308</v>
       </c>
     </row>
     <row r="15">
@@ -978,7 +978,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.09523</v>
+        <v>0.09478</v>
       </c>
     </row>
     <row r="16">
@@ -986,7 +986,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.07266</v>
+        <v>0.07317</v>
       </c>
     </row>
     <row r="17">
@@ -994,7 +994,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.05173</v>
+        <v>0.05198</v>
       </c>
     </row>
     <row r="18">
@@ -1002,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.03581</v>
+        <v>0.03517</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.02165</v>
+        <v>0.02176</v>
       </c>
     </row>
     <row r="20">
@@ -1018,7 +1018,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.01274</v>
+        <v>0.01221</v>
       </c>
     </row>
     <row r="21">
@@ -1026,7 +1026,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.00717</v>
+        <v>0.00715</v>
       </c>
     </row>
     <row r="22">
@@ -1034,7 +1034,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.00386</v>
+        <v>0.00393</v>
       </c>
     </row>
     <row r="23">
@@ -1042,7 +1042,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.00212</v>
+        <v>0.00177</v>
       </c>
     </row>
     <row r="24"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>9.98949</v>
+        <v>9.97837</v>
       </c>
     </row>
     <row r="26">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>9.81788</v>
+        <v>9.78676</v>
       </c>
     </row>
   </sheetData>
